--- a/biology/Botanique/Claude_Mollet/Claude_Mollet.xlsx
+++ b/biology/Botanique/Claude_Mollet/Claude_Mollet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Mollet (né en 1557, mort à Paris le 23 mai 1647[1]), dit Claude Ier Mollet ou Claude Mollet l'Ancien, est un jardinier, dessinateur de jardins et théoricien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Mollet (né en 1557, mort à Paris le 23 mai 1647), dit Claude Ier Mollet ou Claude Mollet l'Ancien, est un jardinier, dessinateur de jardins et théoricien français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jacques Ier Mollet, jardinier au service du duc d'Aumale, il appartient à une grande « dynastie » de jardiniers qui travaillèrent pour les rois de France, d'Henri II jusqu'à Louis XV. Il est le père de Pierre Mollet, Claude II Mollet, André Mollet, Jacques II Mollet  et Noël Mollet.
 Il est l'héritier de Jacques Boyceau, seigneur de la Baraudière, intendant des jardins de Louis XIII et Louis XIV, qui a publié en 1638 le Traité du jardinage selon les raisons de la nature et de l'art, en 3 volumes.
@@ -545,9 +559,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l'auteur du Theatre des plans et iardinages, contenant des secrets et des inventions incognuës à tous ceux qui jusqu’à present se sont meslez d’escrire sur cette matiere..., qui fut publié, à titre posthume, à Paris chez Charles de Sercy en 1652, un an après le Jardin de plaisir du plus célèbre de ses fils, André Mollet, et qui fut réédité sous le titre Théâtre des jardinages en 1663, 1670 et 1678 chez le même imprimeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'auteur du Theatre des plans et iardinages, contenant des secrets et des inventions incognuës à tous ceux qui jusqu’à present se sont meslez d’escrire sur cette matiere..., qui fut publié, à titre posthume, à Paris chez Charles de Sercy en 1652, un an après le Jardin de plaisir du plus célèbre de ses fils, André Mollet, et qui fut réédité sous le titre Théâtre des jardinages en 1663, 1670 et 1678 chez le même imprimeur.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Généalogie simplifiée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les généalogies de la famille Mollet données dans les livres de Dominique Garrigues, Jardins et jardiniers de Versailles au grand siècle, p. 309-310, et de Patricia Bouchenot-Déchin, André Le Nôtre, sont différentes. Le début de l'arbre proposé est celui de Dominique Garrigues, la fin, celui de Patricia Bouchenot-Déchin.
 </t>
